--- a/web/template/inventory_template.xlsx
+++ b/web/template/inventory_template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>商品编码*</t>
   </si>
@@ -55,14 +55,57 @@
   </si>
   <si>
     <t>【${title}】仓库库存统计表(${date})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${isReserved}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. “是否保留该商品”列，如果保留填写“是”，不保留，填写“否”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否保留该商品*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入库存注意事项：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红色*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 标注的列，导入的时候必须填写</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +131,21 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -129,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -138,9 +196,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -224,7 +287,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -298,7 +361,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -333,7 +395,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -509,32 +570,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.25" customWidth="1"/>
     <col min="2" max="2" width="42.5" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
     <col min="4" max="4" width="32.75" customWidth="1"/>
-    <col min="5" max="5" width="28.625" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,8 +613,11 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -559,8 +625,9 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -576,8 +643,11 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -585,6 +655,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -597,25 +668,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="60.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.75">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/web/template/inventory_template.xlsx
+++ b/web/template/inventory_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="模板说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>商品编码*</t>
   </si>
@@ -36,21 +36,6 @@
     <t>&lt;jx:forEach items="${list}" var="result"&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> ${result.code}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ${result.name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ${result.regionCode}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ${result.regionName}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ${result.stockSum}</t>
-  </si>
-  <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
   <si>
@@ -58,54 +43,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>是否保留该商品*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为简化用户更新仓库库存数据的操作，可对某一仓库库存数据进行导出，在导出的Excel基础上进行修改，修改完成后再导入，即可完成相应库存的修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入数据列说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域编码*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存数量*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否保留该商品*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品编码*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本模板用于各仓库网点的商品库存数据的导入/导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为“是”，如果设置为“否”，则该商品将从本仓库清除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${result.code}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${result.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${result.regionCode}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${result.stockSum}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${isReserved}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. “是否保留该商品”列，如果保留填写“是”，不保留，填写“否”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否保留该商品*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入库存注意事项：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>红色*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 标注的列，导入的时候必须填写</t>
-    </r>
+    <t>${result.regionName}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,14 +167,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -187,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,87 +215,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -287,14 +246,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -361,6 +320,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -395,6 +355,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -570,14 +531,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.25" customWidth="1"/>
     <col min="2" max="2" width="42.5" customWidth="1"/>
@@ -587,17 +548,17 @@
     <col min="6" max="6" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,11 +574,11 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -627,29 +588,29 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -668,46 +629,108 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="60.375" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
